--- a/template/potem1.xlsx
+++ b/template/potem1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/home/pan/highable/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/highablePrint/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ED08166E-D54B-3C48-8701-105CF81CF469}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{512427C3-B464-004D-8467-F573A6A74394}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="460" windowWidth="37380" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21900" yWindow="1820" windowWidth="37380" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HA0008" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve"> High Able Investment Ltd </t>
   </si>
@@ -84,15 +84,12 @@
 (HKD)</t>
   </si>
   <si>
-    <t>Best regards,</t>
-  </si>
-  <si>
     <t>TO:</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Attn : </t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -107,7 +104,7 @@
       </rPr>
       <t>：</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -122,23 +119,19 @@
       </rPr>
       <t>：</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
-    <t>送货地址：</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>Remarks:</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>(注:請在開發票時把“PO NO”寫上,不可重復,并且寫上OUR REF)</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>PO NO:</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -148,7 +141,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-409]d/mmm/yy"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="34">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -333,17 +326,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="PMingLiU"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="FangSong"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -409,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -423,14 +421,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -439,40 +429,8 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -517,9 +475,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -551,28 +506,110 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -581,28 +618,28 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -618,7 +655,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -917,12 +954,12 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A5" sqref="A5:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
     <col min="4" max="4" width="13.5" customWidth="1"/>
@@ -936,17 +973,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="27.75" customHeight="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="63"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="70"/>
       <c r="J1" s="1"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -966,816 +1003,818 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="20.25" customHeight="1">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="63"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="70"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:26" ht="21" customHeight="1">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="63"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="70"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="63"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="70"/>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:26" ht="21" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="D5" s="76" t="s">
+      <c r="A5" s="93" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:26" ht="21" customHeight="1">
+      <c r="A6" s="72"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:26" ht="21" customHeight="1">
+      <c r="A7" s="72"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A8" s="44"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:26" ht="22" customHeight="1">
+      <c r="A9" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="48"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+    </row>
+    <row r="10" spans="1:26" ht="22" customHeight="1">
+      <c r="A10" s="50"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+    </row>
+    <row r="11" spans="1:26" ht="22" customHeight="1">
+      <c r="A11" s="92"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+    </row>
+    <row r="12" spans="1:26" ht="22" customHeight="1">
+      <c r="A12" s="92"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+    </row>
+    <row r="13" spans="1:26" ht="18" customHeight="1">
+      <c r="A13" s="82"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+    </row>
+    <row r="14" spans="1:26" ht="18" customHeight="1">
+      <c r="A14" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="76"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:26" ht="21" customHeight="1">
-      <c r="A6" s="66"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:26" ht="21" customHeight="1">
-      <c r="A7" s="66"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:26" ht="22" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
-    </row>
-    <row r="10" spans="1:26" ht="22" customHeight="1">
-      <c r="A10" s="17"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-    </row>
-    <row r="11" spans="1:26" ht="22" customHeight="1">
-      <c r="A11" s="78"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-    </row>
-    <row r="12" spans="1:26" ht="22" customHeight="1">
-      <c r="A12" s="78"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="16"/>
-    </row>
-    <row r="13" spans="1:26" ht="18" customHeight="1">
-      <c r="A13" s="79"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="16"/>
-    </row>
-    <row r="14" spans="1:26" ht="18" customHeight="1">
-      <c r="A14" s="9" t="s">
+      <c r="B14" s="47"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+    </row>
+    <row r="15" spans="1:26" ht="18" customHeight="1">
+      <c r="A15" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="16"/>
-    </row>
-    <row r="15" spans="1:26" ht="18" customHeight="1">
-      <c r="A15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="19" t="s">
+      <c r="B15" s="47"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="21"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="55"/>
       <c r="J15" s="7"/>
       <c r="K15" s="4"/>
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
       <c r="J16" s="7"/>
       <c r="K16" s="4"/>
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="21"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="55"/>
       <c r="J17" s="7"/>
       <c r="K17" s="4"/>
       <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:26" ht="27.75" customHeight="1">
-      <c r="A18" s="7"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="68" t="s">
+      <c r="A18" s="45"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="63"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="6"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="44"/>
       <c r="J18" s="7"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
     </row>
     <row r="19" spans="1:26" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A19" s="24" t="s">
-        <v>21</v>
+      <c r="A19" s="58" t="s">
+        <v>19</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="77" t="s">
-        <v>20</v>
+      <c r="B19" s="59"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="61" t="s">
+        <v>18</v>
       </c>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
     </row>
     <row r="20" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="6"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="44"/>
       <c r="J20" s="7"/>
       <c r="K20" s="4"/>
       <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:26" ht="39" customHeight="1">
-      <c r="A21" s="69" t="s">
+      <c r="A21" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="63"/>
-      <c r="C21" s="70" t="s">
+      <c r="B21" s="70"/>
+      <c r="C21" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="27" t="s">
+      <c r="D21" s="70"/>
+      <c r="E21" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="70" t="s">
+      <c r="F21" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="63"/>
-      <c r="H21" s="28" t="s">
+      <c r="G21" s="70"/>
+      <c r="H21" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="I21" s="29" t="s">
+      <c r="I21" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="J21" s="30"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="16"/>
-      <c r="X21" s="16"/>
-      <c r="Y21" s="16"/>
-      <c r="Z21" s="16"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
     </row>
     <row r="22" spans="1:26" ht="43.5" customHeight="1">
-      <c r="A22" s="73"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="40"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="40"/>
-      <c r="W22" s="40"/>
-      <c r="X22" s="40"/>
-      <c r="Y22" s="40"/>
-      <c r="Z22" s="40"/>
+      <c r="A22" s="85"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="24"/>
+      <c r="X22" s="24"/>
+      <c r="Y22" s="24"/>
+      <c r="Z22" s="24"/>
     </row>
     <row r="23" spans="1:26" ht="43.5" customHeight="1">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="40"/>
-      <c r="U23" s="40"/>
-      <c r="V23" s="40"/>
-      <c r="W23" s="40"/>
-      <c r="X23" s="40"/>
-      <c r="Y23" s="40"/>
-      <c r="Z23" s="40"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="24"/>
+      <c r="W23" s="24"/>
+      <c r="X23" s="24"/>
+      <c r="Y23" s="24"/>
+      <c r="Z23" s="24"/>
     </row>
     <row r="24" spans="1:26" ht="43.5" customHeight="1">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="40"/>
-      <c r="U24" s="40"/>
-      <c r="V24" s="40"/>
-      <c r="W24" s="40"/>
-      <c r="X24" s="40"/>
-      <c r="Y24" s="40"/>
-      <c r="Z24" s="40"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="24"/>
+      <c r="X24" s="24"/>
+      <c r="Y24" s="24"/>
+      <c r="Z24" s="24"/>
     </row>
     <row r="25" spans="1:26" ht="43.5" customHeight="1">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="40"/>
-      <c r="T25" s="40"/>
-      <c r="U25" s="40"/>
-      <c r="V25" s="40"/>
-      <c r="W25" s="40"/>
-      <c r="X25" s="40"/>
-      <c r="Y25" s="40"/>
-      <c r="Z25" s="40"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="24"/>
+      <c r="W25" s="24"/>
+      <c r="X25" s="24"/>
+      <c r="Y25" s="24"/>
+      <c r="Z25" s="24"/>
     </row>
     <row r="26" spans="1:26" ht="32.25" customHeight="1">
-      <c r="A26" s="73"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="40"/>
-      <c r="U26" s="40"/>
-      <c r="V26" s="40"/>
-      <c r="W26" s="40"/>
-      <c r="X26" s="40"/>
-      <c r="Y26" s="40"/>
-      <c r="Z26" s="40"/>
+      <c r="A26" s="78"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="24"/>
+      <c r="V26" s="24"/>
+      <c r="W26" s="24"/>
+      <c r="X26" s="24"/>
+      <c r="Y26" s="24"/>
+      <c r="Z26" s="24"/>
     </row>
     <row r="27" spans="1:26" ht="32.25" customHeight="1">
-      <c r="A27" s="73" t="s">
-        <v>18</v>
+      <c r="A27" s="78"/>
+      <c r="B27" s="79"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="24"/>
+      <c r="V27" s="24"/>
+      <c r="W27" s="24"/>
+      <c r="X27" s="24"/>
+      <c r="Y27" s="24"/>
+      <c r="Z27" s="24"/>
+    </row>
+    <row r="28" spans="1:26" ht="27.75" customHeight="1">
+      <c r="A28" s="80"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="24"/>
+      <c r="T28" s="24"/>
+      <c r="U28" s="24"/>
+      <c r="V28" s="24"/>
+      <c r="W28" s="24"/>
+      <c r="X28" s="24"/>
+      <c r="Y28" s="24"/>
+      <c r="Z28" s="24"/>
+    </row>
+    <row r="29" spans="1:26" ht="19.5" customHeight="1">
+      <c r="A29" s="10"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="12"/>
+    </row>
+    <row r="30" spans="1:26" ht="21" customHeight="1">
+      <c r="A30" s="88" t="s">
+        <v>17</v>
       </c>
-      <c r="B27" s="65"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="40"/>
-      <c r="T27" s="40"/>
-      <c r="U27" s="40"/>
-      <c r="V27" s="40"/>
-      <c r="W27" s="40"/>
-      <c r="X27" s="40"/>
-      <c r="Y27" s="40"/>
-      <c r="Z27" s="40"/>
-    </row>
-    <row r="28" spans="1:26" ht="27.75" customHeight="1">
-      <c r="A28" s="74"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="40"/>
-      <c r="S28" s="40"/>
-      <c r="T28" s="40"/>
-      <c r="U28" s="40"/>
-      <c r="V28" s="40"/>
-      <c r="W28" s="40"/>
-      <c r="X28" s="40"/>
-      <c r="Y28" s="40"/>
-      <c r="Z28" s="40"/>
-    </row>
-    <row r="29" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A29" s="14"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="16"/>
-      <c r="T29" s="16"/>
-      <c r="U29" s="16"/>
-      <c r="V29" s="16"/>
-      <c r="W29" s="16"/>
-      <c r="X29" s="16"/>
-      <c r="Y29" s="16"/>
-      <c r="Z29" s="16"/>
-    </row>
-    <row r="30" spans="1:26" ht="21" customHeight="1">
-      <c r="A30" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="46"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="16"/>
-      <c r="S30" s="16"/>
-      <c r="T30" s="16"/>
-      <c r="U30" s="16"/>
-      <c r="V30" s="16"/>
-      <c r="W30" s="16"/>
-      <c r="X30" s="16"/>
-      <c r="Y30" s="16"/>
-      <c r="Z30" s="16"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="91"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
     </row>
     <row r="31" spans="1:26" ht="21" customHeight="1">
-      <c r="A31" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="16"/>
-      <c r="T31" s="16"/>
-      <c r="U31" s="16"/>
-      <c r="V31" s="16"/>
-      <c r="W31" s="16"/>
-      <c r="X31" s="16"/>
-      <c r="Y31" s="16"/>
-      <c r="Z31" s="16"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="91"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="91"/>
+      <c r="E31" s="91"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="12"/>
+      <c r="Z31" s="12"/>
     </row>
     <row r="32" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A32" s="48"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="16"/>
-      <c r="S32" s="16"/>
-      <c r="T32" s="16"/>
-      <c r="U32" s="16"/>
-      <c r="V32" s="16"/>
-      <c r="W32" s="16"/>
-      <c r="X32" s="16"/>
-      <c r="Y32" s="16"/>
-      <c r="Z32" s="16"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="91"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="91"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="12"/>
     </row>
     <row r="33" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A33" s="13"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="16"/>
-      <c r="S33" s="16"/>
-      <c r="T33" s="16"/>
-      <c r="U33" s="16"/>
-      <c r="V33" s="16"/>
-      <c r="W33" s="16"/>
-      <c r="X33" s="16"/>
-      <c r="Y33" s="16"/>
-      <c r="Z33" s="16"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="91"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="12"/>
+      <c r="Y33" s="12"/>
+      <c r="Z33" s="12"/>
     </row>
     <row r="34" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A34" s="14"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
-      <c r="S34" s="16"/>
-      <c r="T34" s="16"/>
-      <c r="U34" s="16"/>
-      <c r="V34" s="16"/>
-      <c r="W34" s="16"/>
-      <c r="X34" s="16"/>
-      <c r="Y34" s="16"/>
-      <c r="Z34" s="16"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="12"/>
+      <c r="Y34" s="12"/>
+      <c r="Z34" s="12"/>
     </row>
     <row r="35" spans="1:26" ht="17.25" customHeight="1">
       <c r="A35" s="6"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="52"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="35"/>
       <c r="J35" s="7"/>
       <c r="K35" s="4"/>
       <c r="L35" s="3"/>
     </row>
     <row r="36" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A36" s="54"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="55"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="38"/>
       <c r="H36" s="7"/>
-      <c r="I36" s="52"/>
+      <c r="I36" s="35"/>
       <c r="J36" s="7"/>
       <c r="K36" s="4"/>
       <c r="L36" s="3"/>
     </row>
     <row r="37" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A37" s="54"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="52"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="35"/>
       <c r="J37" s="7"/>
       <c r="K37" s="4"/>
       <c r="L37" s="3"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1">
       <c r="A38" s="3"/>
-      <c r="B38" s="56"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="58"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="41"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -1786,9 +1825,9 @@
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1">
       <c r="A39" s="3"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -1798,9 +1837,9 @@
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1">
       <c r="A40" s="3"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="55"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="38"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -1809,20 +1848,20 @@
       <c r="J40" s="3"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1">
-      <c r="C41" s="57"/>
-      <c r="D41" s="55"/>
-      <c r="G41" s="60"/>
-      <c r="H41" s="60"/>
-      <c r="I41" s="60"/>
-      <c r="J41" s="60"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="38"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1">
-      <c r="C42" s="57"/>
-      <c r="D42" s="58"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="41"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1">
-      <c r="C43" s="57"/>
-      <c r="D43" s="55"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="38"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="45" spans="1:26" ht="15.75" customHeight="1"/>
@@ -2783,20 +2822,19 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B30:E33"/>
+    <mergeCell ref="A5:I5"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="C27:G28"/>
-    <mergeCell ref="B9:E10"/>
     <mergeCell ref="A11:G12"/>
     <mergeCell ref="A13:G13"/>
-    <mergeCell ref="D19:I19"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="F26:G26"/>
-    <mergeCell ref="A6:I6"/>
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="D18:E18"/>
@@ -2807,8 +2845,9 @@
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A6:I6"/>
   </mergeCells>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>

--- a/template/potem1.xlsx
+++ b/template/potem1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/highablePrint/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\home\soft\git\highablePrint\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{512427C3-B464-004D-8467-F573A6A74394}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C857E09D-A2A9-4BCD-8AC5-F5BC3E29900F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21900" yWindow="1820" windowWidth="37380" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21900" yWindow="1815" windowWidth="37380" windowHeight="20205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HA0008" sheetId="1" r:id="rId1"/>
@@ -23,38 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t xml:space="preserve"> High Able Investment Ltd </t>
-  </si>
-  <si>
-    <t>Address :  FLAT D 3/F KA WING FTY BLDG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19-21 NG FONG ST SAN PO KONG KOWLOON HONGKONG </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Tel : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>国内</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">0769-88809301-8025  Fax : 852-2726 3821 </t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>DATE</t>
   </si>
@@ -85,11 +54,7 @@
   </si>
   <si>
     <t>TO:</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Attn : </t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -104,7 +69,7 @@
       </rPr>
       <t>：</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -119,19 +84,19 @@
       </rPr>
       <t>：</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>Remarks:</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>(注:請在開發票時把“PO NO”寫上,不可重復,并且寫上OUR REF)</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>PO NO:</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -141,7 +106,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-409]d/mmm/yy"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="33">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -312,12 +277,6 @@
       <name val="PMingLiU"/>
       <family val="1"/>
       <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
@@ -566,28 +525,20 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -600,12 +551,16 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -618,28 +573,32 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -655,7 +614,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -954,36 +913,34 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:I5"/>
+      <selection sqref="A1:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
     <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="19.125" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="9.5" customWidth="1"/>
-    <col min="8" max="8" width="0.33203125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="0.375" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="14.5" customWidth="1"/>
     <col min="10" max="10" width="11.5" customWidth="1"/>
     <col min="11" max="26" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="27.75" customHeight="1">
-      <c r="A1" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="70"/>
+      <c r="A1" s="92"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="89"/>
       <c r="J1" s="1"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -1003,83 +960,75 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="20.25" customHeight="1">
-      <c r="A2" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="70"/>
+      <c r="A2" s="94"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="89"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:26" ht="21" customHeight="1">
-      <c r="A3" s="71" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="70"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="89"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A4" s="71" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="70"/>
+      <c r="A4" s="94"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="89"/>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:26" ht="21" customHeight="1">
-      <c r="A5" s="93" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:26" ht="21" customHeight="1">
-      <c r="A6" s="72"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
+      <c r="A6" s="86"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="21" customHeight="1">
-      <c r="A7" s="72"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
+      <c r="A7" s="86"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
@@ -1094,17 +1043,17 @@
       <c r="I8" s="46"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:26" ht="22" customHeight="1">
+    <row r="9" spans="1:26" ht="21.95" customHeight="1">
       <c r="A9" s="47" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
       <c r="F9" s="48"/>
       <c r="G9" s="47" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H9" s="48"/>
       <c r="I9" s="49"/>
@@ -1126,12 +1075,12 @@
       <c r="Y9" s="12"/>
       <c r="Z9" s="12"/>
     </row>
-    <row r="10" spans="1:26" ht="22" customHeight="1">
+    <row r="10" spans="1:26" ht="21.95" customHeight="1">
       <c r="A10" s="50"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
       <c r="F10" s="48"/>
       <c r="G10" s="51"/>
       <c r="H10" s="48"/>
@@ -1154,14 +1103,14 @@
       <c r="Y10" s="12"/>
       <c r="Z10" s="12"/>
     </row>
-    <row r="11" spans="1:26" ht="22" customHeight="1">
-      <c r="A11" s="92"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
+    <row r="11" spans="1:26" ht="21.95" customHeight="1">
+      <c r="A11" s="78"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
       <c r="H11" s="48"/>
       <c r="I11" s="48"/>
       <c r="J11" s="11"/>
@@ -1182,14 +1131,14 @@
       <c r="Y11" s="12"/>
       <c r="Z11" s="12"/>
     </row>
-    <row r="12" spans="1:26" ht="22" customHeight="1">
-      <c r="A12" s="92"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
+    <row r="12" spans="1:26" ht="21.95" customHeight="1">
+      <c r="A12" s="78"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
       <c r="H12" s="48"/>
       <c r="I12" s="48"/>
       <c r="J12" s="11"/>
@@ -1211,13 +1160,13 @@
       <c r="Z12" s="12"/>
     </row>
     <row r="13" spans="1:26" ht="18" customHeight="1">
-      <c r="A13" s="82"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
+      <c r="A13" s="79"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
       <c r="H13" s="48"/>
       <c r="I13" s="48"/>
       <c r="J13" s="11"/>
@@ -1240,7 +1189,7 @@
     </row>
     <row r="14" spans="1:26" ht="18" customHeight="1">
       <c r="A14" s="47" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B14" s="47"/>
       <c r="C14" s="48"/>
@@ -1270,7 +1219,7 @@
     </row>
     <row r="15" spans="1:26" ht="18" customHeight="1">
       <c r="A15" s="47" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B15" s="47"/>
       <c r="C15" s="52"/>
@@ -1278,7 +1227,7 @@
       <c r="E15" s="48"/>
       <c r="F15" s="48"/>
       <c r="G15" s="53" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H15" s="54"/>
       <c r="I15" s="55"/>
@@ -1293,9 +1242,9 @@
       <c r="D16" s="48"/>
       <c r="E16" s="48"/>
       <c r="F16" s="48"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
       <c r="J16" s="7"/>
       <c r="K16" s="4"/>
       <c r="L16" s="3"/>
@@ -1318,10 +1267,10 @@
       <c r="A18" s="45"/>
       <c r="B18" s="56"/>
       <c r="C18" s="45"/>
-      <c r="D18" s="75" t="s">
-        <v>6</v>
+      <c r="D18" s="88" t="s">
+        <v>2</v>
       </c>
-      <c r="E18" s="70"/>
+      <c r="E18" s="89"/>
       <c r="F18" s="57"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
@@ -1332,12 +1281,12 @@
     </row>
     <row r="19" spans="1:26" ht="27.75" customHeight="1" thickBot="1">
       <c r="A19" s="58" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B19" s="59"/>
       <c r="C19" s="60"/>
       <c r="D19" s="61" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E19" s="61"/>
       <c r="F19" s="61"/>
@@ -1363,26 +1312,26 @@
       <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:26" ht="39" customHeight="1">
-      <c r="A21" s="76" t="s">
+      <c r="A21" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="89"/>
+      <c r="C21" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="89"/>
+      <c r="E21" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="89"/>
+      <c r="H21" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="70"/>
-      <c r="C21" s="77" t="s">
+      <c r="I21" s="64" t="s">
         <v>8</v>
-      </c>
-      <c r="D21" s="70"/>
-      <c r="E21" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="77" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="70"/>
-      <c r="H21" s="63" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="64" t="s">
-        <v>12</v>
       </c>
       <c r="J21" s="14"/>
       <c r="K21" s="10"/>
@@ -1403,13 +1352,13 @@
       <c r="Z21" s="12"/>
     </row>
     <row r="22" spans="1:26" ht="43.5" customHeight="1">
-      <c r="A22" s="85"/>
-      <c r="B22" s="73"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="73"/>
+      <c r="A22" s="83"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="81"/>
       <c r="E22" s="65"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="73"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="81"/>
       <c r="H22" s="66"/>
       <c r="I22" s="67"/>
       <c r="J22" s="21"/>
@@ -1515,13 +1464,13 @@
       <c r="Z25" s="24"/>
     </row>
     <row r="26" spans="1:26" ht="32.25" customHeight="1">
-      <c r="A26" s="78"/>
-      <c r="B26" s="79"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="79"/>
+      <c r="A26" s="74"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="75"/>
       <c r="E26" s="17"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="79"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="75"/>
       <c r="H26" s="19"/>
       <c r="I26" s="20"/>
       <c r="J26" s="21"/>
@@ -1543,13 +1492,13 @@
       <c r="Z26" s="24"/>
     </row>
     <row r="27" spans="1:26" ht="32.25" customHeight="1">
-      <c r="A27" s="78"/>
-      <c r="B27" s="79"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
+      <c r="A27" s="74"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
       <c r="H27" s="25"/>
       <c r="I27" s="20"/>
       <c r="J27" s="21"/>
@@ -1571,13 +1520,13 @@
       <c r="Z27" s="24"/>
     </row>
     <row r="28" spans="1:26" ht="27.75" customHeight="1">
-      <c r="A28" s="80"/>
-      <c r="B28" s="79"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
+      <c r="A28" s="76"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
       <c r="H28" s="26"/>
       <c r="I28" s="27"/>
       <c r="J28" s="23"/>
@@ -1627,13 +1576,13 @@
       <c r="Z29" s="12"/>
     </row>
     <row r="30" spans="1:26" ht="21" customHeight="1">
-      <c r="A30" s="88" t="s">
-        <v>17</v>
+      <c r="A30" s="68" t="s">
+        <v>12</v>
       </c>
-      <c r="B30" s="90"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="91"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
       <c r="F30" s="10"/>
       <c r="G30" s="11"/>
       <c r="H30" s="10"/>
@@ -1658,10 +1607,10 @@
     </row>
     <row r="31" spans="1:26" ht="21" customHeight="1">
       <c r="A31" s="30"/>
-      <c r="B31" s="91"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="91"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
       <c r="F31" s="10"/>
       <c r="G31" s="11"/>
       <c r="H31" s="30"/>
@@ -1686,10 +1635,10 @@
     </row>
     <row r="32" spans="1:26" ht="19.5" customHeight="1">
       <c r="A32" s="31"/>
-      <c r="B32" s="91"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="91"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="30"/>
@@ -1714,10 +1663,10 @@
     </row>
     <row r="33" spans="1:26" ht="22.5" customHeight="1">
       <c r="A33" s="9"/>
-      <c r="B33" s="91"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="91"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
       <c r="F33" s="32"/>
       <c r="G33" s="14"/>
       <c r="H33" s="32"/>
@@ -2822,6 +2771,14 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A6:I6"/>
     <mergeCell ref="B30:E33"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A27:B27"/>
@@ -2838,16 +2795,8 @@
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A6:I6"/>
   </mergeCells>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="30" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
